--- a/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/最终使用.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/最终使用部分/最终使用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,479 +528,286 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28781521.2832218</v>
+        <v>140339801.653379</v>
       </c>
       <c r="C2" t="n">
-        <v>132086662.912955</v>
+        <v>730463502.217644</v>
       </c>
       <c r="D2" t="n">
-        <v>126490434.391817</v>
+        <v>172935162.488156</v>
       </c>
       <c r="E2" t="n">
-        <v>36990758.5290857</v>
+        <v>139530388.271155</v>
       </c>
       <c r="F2" t="n">
-        <v>217126328.60753</v>
+        <v>984978890.5258271</v>
       </c>
       <c r="G2" t="n">
-        <v>56998409.8246337</v>
+        <v>300636779.170524</v>
       </c>
       <c r="H2" t="n">
-        <v>53375954.8377313</v>
+        <v>268137331.166965</v>
       </c>
       <c r="I2" t="n">
-        <v>1117755958.28705</v>
+        <v>5022012609.37557</v>
       </c>
       <c r="J2" t="n">
-        <v>206875336.499618</v>
+        <v>1289786166.22013</v>
       </c>
       <c r="K2" t="n">
-        <v>4086044.96490666</v>
+        <v>21514989.7975769</v>
       </c>
       <c r="L2" t="n">
-        <v>7050030.74105209</v>
+        <v>47495713.9408462</v>
       </c>
       <c r="M2" t="n">
-        <v>76706969.2022159</v>
+        <v>242777593.460137</v>
       </c>
       <c r="N2" t="n">
-        <v>24896471.1388382</v>
+        <v>170055882.61423</v>
       </c>
       <c r="O2" t="n">
-        <v>6743314.03110793</v>
+        <v>16903200.8877443</v>
       </c>
       <c r="P2" t="n">
-        <v>18481199.4945731</v>
+        <v>92435844.69458</v>
       </c>
       <c r="Q2" t="n">
-        <v>14915872.2191475</v>
+        <v>64076703.3622535</v>
       </c>
       <c r="R2" t="n">
-        <v>11100292.267225</v>
+        <v>26452639.2574416</v>
       </c>
       <c r="S2" t="n">
-        <v>95050357.34138881</v>
+        <v>313492019.646974</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53019</v>
+        <v>156099475.019221</v>
       </c>
       <c r="C3" t="n">
-        <v>280333862.553924</v>
+        <v>996901848.882817</v>
       </c>
       <c r="D3" t="n">
-        <v>122070572.820256</v>
+        <v>286678966.552621</v>
       </c>
       <c r="E3" t="n">
-        <v>38677330.8487827</v>
+        <v>160758386.49352</v>
       </c>
       <c r="F3" t="n">
-        <v>273799510.973494</v>
+        <v>1296852813.93771</v>
       </c>
       <c r="G3" t="n">
-        <v>77424601.28869949</v>
+        <v>364389891.231999</v>
       </c>
       <c r="H3" t="n">
-        <v>102503845.228095</v>
+        <v>421234155.506559</v>
       </c>
       <c r="I3" t="n">
-        <v>1482005175</v>
+        <v>6567743245.75515</v>
       </c>
       <c r="J3" t="n">
-        <v>267231852.897886</v>
+        <v>1511103203.10469</v>
       </c>
       <c r="K3" t="n">
-        <v>-219382</v>
+        <v>53713866.8096282</v>
       </c>
       <c r="L3" t="n">
-        <v>184427</v>
+        <v>36716264.1179902</v>
       </c>
       <c r="M3" t="n">
-        <v>87386654.7545685</v>
+        <v>273723635.184182</v>
       </c>
       <c r="N3" t="n">
-        <v>37687963.9527147</v>
+        <v>310788618.335185</v>
       </c>
       <c r="O3" t="n">
-        <v>9259032.51451985</v>
+        <v>12469606.0972426</v>
       </c>
       <c r="P3" t="n">
-        <v>22380504.9937207</v>
+        <v>123540156.232473</v>
       </c>
       <c r="Q3" t="n">
-        <v>15021653.2837169</v>
+        <v>109392810.949596</v>
       </c>
       <c r="R3" t="n">
-        <v>8310056.01522378</v>
+        <v>31114067.600644</v>
       </c>
       <c r="S3" t="n">
-        <v>83368780.0732882</v>
+        <v>422265479.699071</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63007084.4174785</v>
+        <v>208108978.665078</v>
       </c>
       <c r="C4" t="n">
-        <v>383370897.64045</v>
+        <v>1363400348.42747</v>
       </c>
       <c r="D4" t="n">
-        <v>128549074.266975</v>
+        <v>238134433.273741</v>
       </c>
       <c r="E4" t="n">
-        <v>62389662.422323</v>
+        <v>184649944.844762</v>
       </c>
       <c r="F4" t="n">
-        <v>414518177.993455</v>
+        <v>1801096661.14787</v>
       </c>
       <c r="G4" t="n">
-        <v>104457025.203662</v>
+        <v>493968629.133903</v>
       </c>
       <c r="H4" t="n">
-        <v>148488248.753657</v>
+        <v>539597276.20232</v>
       </c>
       <c r="I4" t="n">
-        <v>2469642631.10427</v>
+        <v>8147539541.40072</v>
       </c>
       <c r="J4" t="n">
-        <v>621039676.416819</v>
+        <v>1677289051.98912</v>
       </c>
       <c r="K4" t="n">
-        <v>12773515.1800425</v>
+        <v>58320637.8728693</v>
       </c>
       <c r="L4" t="n">
-        <v>18925241.9531885</v>
+        <v>46907936.8221438</v>
       </c>
       <c r="M4" t="n">
-        <v>149437373.046926</v>
+        <v>344804019.418503</v>
       </c>
       <c r="N4" t="n">
-        <v>99325038.1121958</v>
+        <v>388874734.602872</v>
       </c>
       <c r="O4" t="n">
-        <v>6399646.83502322</v>
+        <v>7911839.08066123</v>
       </c>
       <c r="P4" t="n">
-        <v>57279101.2171184</v>
+        <v>105351472.660657</v>
       </c>
       <c r="Q4" t="n">
-        <v>35192135.62133</v>
+        <v>169959757.928836</v>
       </c>
       <c r="R4" t="n">
-        <v>18403257.3437495</v>
+        <v>38452831.9651503</v>
       </c>
       <c r="S4" t="n">
-        <v>146087474.67988</v>
+        <v>480710987.364762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105594292.008464</v>
+        <v>17710540.1432818</v>
       </c>
       <c r="C5" t="n">
-        <v>474841954.60483</v>
+        <v>1872123582.88717</v>
       </c>
       <c r="D5" t="n">
-        <v>142052871.750353</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100812259.109866</v>
-      </c>
+        <v>310729850.887408</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>601873406.806587</v>
-      </c>
-      <c r="G5" t="n">
-        <v>159725284.915215</v>
-      </c>
-      <c r="H5" t="n">
-        <v>202246138.490975</v>
-      </c>
+        <v>2188692348.82267</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>3382039494.91864</v>
+        <v>9724840892.788481</v>
       </c>
       <c r="J5" t="n">
-        <v>839351430.21929</v>
+        <v>1728845561.71016</v>
       </c>
       <c r="K5" t="n">
-        <v>17826630.492265</v>
+        <v>257011603.620595</v>
       </c>
       <c r="L5" t="n">
-        <v>27401824.3443907</v>
+        <v>63677853.644511</v>
       </c>
       <c r="M5" t="n">
-        <v>202548378.607924</v>
-      </c>
-      <c r="N5" t="n">
-        <v>130139751.705523</v>
-      </c>
+        <v>326004322.608152</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>10369689.7129692</v>
+        <v>9381170.950561101</v>
       </c>
       <c r="P5" t="n">
-        <v>108586209.50427</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>45013176.4248064</v>
-      </c>
+        <v>135349200.01203</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>18174951.4357928</v>
+        <v>34641981.3554066</v>
       </c>
       <c r="S5" t="n">
-        <v>195481244.785116</v>
+        <v>675036991.39968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140339801.653379</v>
+        <v>21023911.6478502</v>
       </c>
       <c r="C6" t="n">
-        <v>730463502.217644</v>
+        <v>2377648687.6163</v>
       </c>
       <c r="D6" t="n">
-        <v>172935162.488156</v>
-      </c>
-      <c r="E6" t="n">
-        <v>139530388.271155</v>
-      </c>
+        <v>441090596.625456</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>984978890.5258271</v>
-      </c>
-      <c r="G6" t="n">
-        <v>300636779.170524</v>
-      </c>
-      <c r="H6" t="n">
-        <v>268137331.166965</v>
-      </c>
+        <v>2715857387.03052</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>5022012609.37557</v>
+        <v>11790811542.2879</v>
       </c>
       <c r="J6" t="n">
-        <v>1289786166.22013</v>
+        <v>1918920104.3138</v>
       </c>
       <c r="K6" t="n">
-        <v>21514989.7975769</v>
+        <v>263522662.90245</v>
       </c>
       <c r="L6" t="n">
-        <v>47495713.9408462</v>
+        <v>118925454.63655</v>
       </c>
       <c r="M6" t="n">
-        <v>242777593.460137</v>
-      </c>
-      <c r="N6" t="n">
-        <v>170055882.61423</v>
-      </c>
+        <v>314437555.9808</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>16903200.8877443</v>
+        <v>6363715.02579818</v>
       </c>
       <c r="P6" t="n">
-        <v>92435844.69458</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>64076703.3622535</v>
-      </c>
+        <v>151082594.831329</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>26452639.2574416</v>
+        <v>42181555.5967762</v>
       </c>
       <c r="S6" t="n">
-        <v>313492019.646974</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>156099475.019221</v>
-      </c>
-      <c r="C7" t="n">
-        <v>996901848.882817</v>
-      </c>
-      <c r="D7" t="n">
-        <v>286678966.552621</v>
-      </c>
-      <c r="E7" t="n">
-        <v>160758386.49352</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1296852813.93771</v>
-      </c>
-      <c r="G7" t="n">
-        <v>364389891.231999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>421234155.506559</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6567743245.75515</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1511103203.10469</v>
-      </c>
-      <c r="K7" t="n">
-        <v>53713866.8096282</v>
-      </c>
-      <c r="L7" t="n">
-        <v>36716264.1179902</v>
-      </c>
-      <c r="M7" t="n">
-        <v>273723635.184182</v>
-      </c>
-      <c r="N7" t="n">
-        <v>310788618.335185</v>
-      </c>
-      <c r="O7" t="n">
-        <v>12469606.0972426</v>
-      </c>
-      <c r="P7" t="n">
-        <v>123540156.232473</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>109392810.949596</v>
-      </c>
-      <c r="R7" t="n">
-        <v>31114067.600644</v>
-      </c>
-      <c r="S7" t="n">
-        <v>422265479.699071</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>208108978.665078</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1363400348.42747</v>
-      </c>
-      <c r="D8" t="n">
-        <v>238134433.273741</v>
-      </c>
-      <c r="E8" t="n">
-        <v>184649944.844762</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1801096661.14787</v>
-      </c>
-      <c r="G8" t="n">
-        <v>493968629.133903</v>
-      </c>
-      <c r="H8" t="n">
-        <v>539597276.20232</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8147539541.40072</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1677289051.98912</v>
-      </c>
-      <c r="K8" t="n">
-        <v>58320637.8728693</v>
-      </c>
-      <c r="L8" t="n">
-        <v>46907936.8221438</v>
-      </c>
-      <c r="M8" t="n">
-        <v>344804019.418503</v>
-      </c>
-      <c r="N8" t="n">
-        <v>388874734.602872</v>
-      </c>
-      <c r="O8" t="n">
-        <v>7911839.08066123</v>
-      </c>
-      <c r="P8" t="n">
-        <v>105351472.660657</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>169959757.928836</v>
-      </c>
-      <c r="R8" t="n">
-        <v>38452831.9651503</v>
-      </c>
-      <c r="S8" t="n">
-        <v>480710987.364762</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>17710540.1432818</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1872123582.88717</v>
-      </c>
-      <c r="D9" t="n">
-        <v>310729850.887408</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>2188692348.82267</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>9724840892.788481</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1728845561.71016</v>
-      </c>
-      <c r="K9" t="n">
-        <v>257011603.620595</v>
-      </c>
-      <c r="L9" t="n">
-        <v>63677853.644511</v>
-      </c>
-      <c r="M9" t="n">
-        <v>326004322.608152</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>9381170.950561101</v>
-      </c>
-      <c r="P9" t="n">
-        <v>135349200.01203</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>34641981.3554066</v>
-      </c>
-      <c r="S9" t="n">
-        <v>675036991.39968</v>
+        <v>652874300.461413</v>
       </c>
     </row>
   </sheetData>
